--- a/com.w/main/note/时间管理计划.xlsx
+++ b/com.w/main/note/时间管理计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wp\wpNote\com.w\main\Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wp\wpNote\com.w\main\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF23156-D87B-497C-9784-84BB428C7BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07900955-5F3C-4C28-8445-92CBF7D2457E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="552" windowWidth="16308" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1164" yWindow="1356" windowWidth="16608" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日志记录" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="727">
   <si>
     <t>星期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2407,6 +2407,247 @@
   </si>
   <si>
     <t>故宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.10</t>
+  </si>
+  <si>
+    <t>12.11</t>
+  </si>
+  <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>12.13</t>
+  </si>
+  <si>
+    <t>12.14</t>
+  </si>
+  <si>
+    <t>12.15</t>
+  </si>
+  <si>
+    <t>12.16</t>
+  </si>
+  <si>
+    <t>12.17</t>
+  </si>
+  <si>
+    <t>12.18</t>
+  </si>
+  <si>
+    <t>12.19</t>
+  </si>
+  <si>
+    <t>12.20</t>
+  </si>
+  <si>
+    <t>12.21</t>
+  </si>
+  <si>
+    <t>12.22</t>
+  </si>
+  <si>
+    <t>12.23</t>
+  </si>
+  <si>
+    <t>12.24</t>
+  </si>
+  <si>
+    <t>12.25</t>
+  </si>
+  <si>
+    <t>12.26</t>
+  </si>
+  <si>
+    <t>12.27</t>
+  </si>
+  <si>
+    <t>12.28</t>
+  </si>
+  <si>
+    <t>12.29</t>
+  </si>
+  <si>
+    <t>12.30</t>
+  </si>
+  <si>
+    <t>12.31</t>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>转正无望，着手春招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平静</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2836,6 +3077,69 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2845,19 +3149,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2869,64 +3164,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2938,10 +3179,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3537,10 +3778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCEDE24-A154-473C-9FA3-EA46E98C807D}">
-  <dimension ref="A1:R241"/>
+  <dimension ref="A1:R318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="E240" sqref="E240"/>
+    <sheetView tabSelected="1" topLeftCell="E299" workbookViewId="0">
+      <selection activeCell="F318" sqref="F318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7340,7 +7581,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>594</v>
@@ -7357,7 +7598,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>598</v>
@@ -7371,7 +7612,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>599</v>
@@ -7385,7 +7626,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>600</v>
@@ -7399,7 +7640,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>601</v>
@@ -7413,7 +7654,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>602</v>
@@ -7433,7 +7674,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>603</v>
@@ -7450,7 +7691,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>610</v>
@@ -7467,7 +7708,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>611</v>
@@ -7487,7 +7728,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>615</v>
@@ -7501,7 +7742,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>616</v>
@@ -7515,7 +7756,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>617</v>
@@ -7528,6 +7769,9 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>224</v>
+      </c>
       <c r="B226" s="8" t="s">
         <v>619</v>
       </c>
@@ -7539,6 +7783,9 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>225</v>
+      </c>
       <c r="B227" s="8" t="s">
         <v>620</v>
       </c>
@@ -7550,6 +7797,9 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>226</v>
+      </c>
       <c r="B228" s="8" t="s">
         <v>621</v>
       </c>
@@ -7561,6 +7811,9 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>227</v>
+      </c>
       <c r="B229" s="8" t="s">
         <v>622</v>
       </c>
@@ -7572,6 +7825,9 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>228</v>
+      </c>
       <c r="B230" s="8" t="s">
         <v>623</v>
       </c>
@@ -7583,6 +7839,9 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>229</v>
+      </c>
       <c r="B231" s="8" t="s">
         <v>624</v>
       </c>
@@ -7594,6 +7853,9 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>230</v>
+      </c>
       <c r="B232" s="8" t="s">
         <v>625</v>
       </c>
@@ -7605,6 +7867,9 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>231</v>
+      </c>
       <c r="B233" s="8" t="s">
         <v>626</v>
       </c>
@@ -7616,6 +7881,9 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>232</v>
+      </c>
       <c r="B234" s="8" t="s">
         <v>627</v>
       </c>
@@ -7630,6 +7898,9 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>233</v>
+      </c>
       <c r="B235" s="8" t="s">
         <v>628</v>
       </c>
@@ -7644,6 +7915,9 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>234</v>
+      </c>
       <c r="B236" s="8" t="s">
         <v>629</v>
       </c>
@@ -7658,6 +7932,9 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>235</v>
+      </c>
       <c r="B237" s="8" t="s">
         <v>639</v>
       </c>
@@ -7669,6 +7946,9 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>236</v>
+      </c>
       <c r="B238" s="8" t="s">
         <v>640</v>
       </c>
@@ -7680,6 +7960,9 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>237</v>
+      </c>
       <c r="B239" s="8" t="s">
         <v>641</v>
       </c>
@@ -7691,6 +7974,9 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>238</v>
+      </c>
       <c r="B240" s="8" t="s">
         <v>642</v>
       </c>
@@ -7701,9 +7987,643 @@
         <v>497</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>239</v>
+      </c>
       <c r="B241" s="8" t="s">
         <v>643</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C318" t="s">
+        <v>19</v>
+      </c>
+      <c r="D318" t="s">
+        <v>26</v>
+      </c>
+      <c r="E318" t="s">
+        <v>725</v>
+      </c>
+      <c r="F318" t="s">
+        <v>726</v>
+      </c>
+      <c r="G318">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -7713,7 +8633,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E10:F33 D1:D33 E38:F41 E38:E43 E54:E60 F60 E62:E65 E67 E69:E70 F69 E83:E85 F92 E91:E93 F105 E103:E107 E109 E124 E152 E164:E165 E155:E156 E147 E143:E144 E127:E129 E131:E133 E135:E139 E141 E116:E117 E119:E122 E162 E168:E174 D38:D1048576 E187 E196:E201 E204:E205 E209 E211:E212 E214 E219 E222 E234:E236">
+  <conditionalFormatting sqref="E10:F33 D1:D33 E38:F41 E38:E43 E54:E60 F60 E62:E65 E67 E69:E70 F69 E83:E85 F92 E91:E93 F105 E103:E107 E109 E124 E152 E164:E165 E155:E156 E147 E143:E144 E127:E129 E131:E133 E135:E139 E141 E116:E117 E119:E122 E162 E168:E174 D38:D1048576 E187 E196:E201 E204:E205 E209 E211:E212 E214 E219 E222 E234:E236 E318:F318">
     <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>$P$6</formula>
     </cfRule>
@@ -7869,7 +8789,7 @@
       <formula>$P$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576 E209 E211:E212 E214 E219 E222 E234:E236">
+  <conditionalFormatting sqref="D1:D1048576 E209 E211:E212 E214 E219 E222 E234:E236 E318:F318">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$P$7</formula>
     </cfRule>
@@ -8230,28 +9150,28 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="61" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8260,581 +9180,617 @@
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="49"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="41"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="57" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="45" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="61" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="44" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="55" t="s">
+      <c r="J13" s="53" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="52" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="J15" s="52" t="s">
+      <c r="J15" s="45" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="63" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="H17" s="63" t="s">
+      <c r="H17" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="J17" s="63" t="s">
+      <c r="J17" s="43" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="59" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="48" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="63" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="I23" s="63" t="s">
+      <c r="I23" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="43" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="52" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="J25" s="52" t="s">
+      <c r="J25" s="45" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="64" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="64" t="s">
+      <c r="G27" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="64" t="s">
+      <c r="I27" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="64" t="s">
+      <c r="J27" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="65" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="H29" s="65" t="s">
+      <c r="H29" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="I29" s="65" t="s">
+      <c r="I29" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="J29" s="65" t="s">
+      <c r="J29" s="38" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A17:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="G9:G12"/>
@@ -8859,70 +9815,34 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A17:B20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8956,28 +9876,28 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="61" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8986,88 +9906,88 @@
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="49"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="41"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="72" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="69" t="s">
         <v>205</v>
       </c>
@@ -9094,8 +10014,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
       <c r="E8" s="70"/>
@@ -9106,10 +10026,10 @@
       <c r="J8" s="70"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="41" t="s">
         <v>432</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
       <c r="E9" s="70"/>
@@ -9120,8 +10040,8 @@
       <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="71"/>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
@@ -9132,136 +10052,136 @@
       <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="55" t="s">
+      <c r="J13" s="53" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="72" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="67" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="17" t="s">
         <v>279</v>
       </c>
@@ -9288,8 +10208,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -9300,8 +10220,8 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -9312,8 +10232,8 @@
       <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -9324,52 +10244,52 @@
       <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="43" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="63" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="45"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="15" t="s">
         <v>428</v>
       </c>
@@ -9396,8 +10316,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -9408,10 +10328,10 @@
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="B25" s="45"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="17" t="s">
         <v>429</v>
       </c>
@@ -9438,8 +10358,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -9450,8 +10370,8 @@
       <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -9462,8 +10382,8 @@
       <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -9474,10 +10394,10 @@
       <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="45"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="13" t="s">
         <v>430</v>
       </c>
@@ -9504,8 +10424,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -9517,39 +10437,33 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A17:B20"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="J7:J10"/>
@@ -9566,33 +10480,39 @@
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A17:B20"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9627,28 +10547,28 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="61" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9657,28 +10577,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="49"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9688,16 +10608,16 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="41"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9707,52 +10627,52 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="72" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="69" t="s">
         <v>205</v>
       </c>
@@ -9779,8 +10699,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
       <c r="E8" s="70"/>
@@ -9791,10 +10711,10 @@
       <c r="J8" s="70"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
       <c r="E9" s="70"/>
@@ -9805,8 +10725,8 @@
       <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="71"/>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
@@ -9817,94 +10737,94 @@
       <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="67" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="69" t="s">
         <v>205</v>
       </c>
@@ -9931,8 +10851,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="70"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -9943,8 +10863,8 @@
       <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="70"/>
       <c r="D17" s="70"/>
       <c r="E17" s="70"/>
@@ -9955,8 +10875,8 @@
       <c r="J17" s="70"/>
     </row>
     <row r="18" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
       <c r="E18" s="71"/>
@@ -9967,52 +10887,52 @@
       <c r="J18" s="71"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="43" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="63" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="74" t="s">
         <v>206</v>
       </c>
@@ -10039,8 +10959,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="75"/>
       <c r="D22" s="75"/>
       <c r="E22" s="75"/>
@@ -10051,138 +10971,179 @@
       <c r="J22" s="75"/>
     </row>
     <row r="23" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="61" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="61" t="s">
+      <c r="I23" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="44" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="65" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="F27" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="65" t="s">
+      <c r="G27" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="65" t="s">
+      <c r="H27" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="65" t="s">
+      <c r="J27" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C5:C6"/>
@@ -10199,68 +11160,27 @@
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="D7:D10"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/com.w/main/note/时间管理计划.xlsx
+++ b/com.w/main/note/时间管理计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wp\wpNote\com.w\main\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07900955-5F3C-4C28-8445-92CBF7D2457E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E9C150-06CB-4DEE-8430-9D9CF201EC8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1164" yWindow="1356" windowWidth="16608" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="759">
   <si>
     <t>星期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2648,6 +2648,108 @@
   </si>
   <si>
     <t>平静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>回学校，拍毕业图像采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>回北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递简历，B站，Keep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>编码能力需要提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康笔试，用友面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3778,10 +3880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCEDE24-A154-473C-9FA3-EA46E98C807D}">
-  <dimension ref="A1:R318"/>
+  <dimension ref="A1:R345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E299" workbookViewId="0">
-      <selection activeCell="F318" sqref="F318"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8624,6 +8726,240 @@
       </c>
       <c r="G318">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C332" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C339" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C340" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C342" t="s">
+        <v>758</v>
+      </c>
+      <c r="D342" t="s">
+        <v>497</v>
+      </c>
+      <c r="E342" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>756</v>
       </c>
     </row>
   </sheetData>

--- a/com.w/main/note/时间管理计划.xlsx
+++ b/com.w/main/note/时间管理计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wp\wpNote\com.w\main\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E9C150-06CB-4DEE-8430-9D9CF201EC8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F971BF-28B3-49B6-899C-AD0CB3A09E5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="1356" windowWidth="16608" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日志记录" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="785">
   <si>
     <t>星期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2750,6 +2750,92 @@
   </si>
   <si>
     <t>海康笔试，用友面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>编码能力需要提升，个人情绪不正确，忧虑未来35岁的事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忧虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>百度，补考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法过0个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躺尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划15离职，16回学校，12签海康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过黄妹妹的反馈，明确懒这个习惯，确实是需要改变的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3179,69 +3265,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3251,10 +3274,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3266,10 +3298,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3281,10 +3367,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3880,10 +3966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCEDE24-A154-473C-9FA3-EA46E98C807D}">
-  <dimension ref="A1:R345"/>
+  <dimension ref="A1:R364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="E342" sqref="E342"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="G365" sqref="G365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8875,7 +8961,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -8883,7 +8969,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -8891,7 +8977,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -8902,7 +8988,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -8913,7 +8999,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -8921,7 +9007,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -8938,7 +9024,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -8946,7 +9032,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -8954,12 +9040,197 @@
         <v>755</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>756</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C352" t="s">
+        <v>417</v>
+      </c>
+      <c r="D352" t="s">
+        <v>497</v>
+      </c>
+      <c r="E352" t="s">
+        <v>766</v>
+      </c>
+      <c r="F352" t="s">
+        <v>767</v>
+      </c>
+      <c r="G352">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C362" t="s">
+        <v>780</v>
+      </c>
+      <c r="E362" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="C363" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="C364" t="s">
+        <v>783</v>
+      </c>
+      <c r="E364" t="s">
+        <v>784</v>
+      </c>
+      <c r="G364">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -8969,7 +9240,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E10:F33 D1:D33 E38:F41 E38:E43 E54:E60 F60 E62:E65 E67 E69:E70 F69 E83:E85 F92 E91:E93 F105 E103:E107 E109 E124 E152 E164:E165 E155:E156 E147 E143:E144 E127:E129 E131:E133 E135:E139 E141 E116:E117 E119:E122 E162 E168:E174 D38:D1048576 E187 E196:E201 E204:E205 E209 E211:E212 E214 E219 E222 E234:E236 E318:F318">
+  <conditionalFormatting sqref="E10:F33 D1:D33 E38:F41 E38:E43 E54:E60 F60 E62:E65 E67 E69:E70 F69 E83:E85 F92 E91:E93 F105 E103:E107 E109 E124 E152 E164:E165 E155:E156 E147 E143:E144 E127:E129 E131:E133 E135:E139 E141 E116:E117 E119:E122 E162 E168:E174 D38:D1048576 E187 E196:E201 E204:E205 E209 E211:E212 E214 E219 E222 E234:E236 E318:F318 E352:F352">
     <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>$P$6</formula>
     </cfRule>
@@ -9125,7 +9396,7 @@
       <formula>$P$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576 E209 E211:E212 E214 E219 E222 E234:E236 E318:F318">
+  <conditionalFormatting sqref="D1:D1048576 E209 E211:E212 E214 E219 E222 E234:E236 E318:F318 E352:F352">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$P$7</formula>
     </cfRule>
@@ -9486,28 +9757,28 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9516,593 +9787,605 @@
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="56"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="50" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="52" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="44" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="61" t="s">
         <v>575</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="61" t="s">
         <v>575</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="61" t="s">
         <v>575</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="61" t="s">
         <v>575</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="61" t="s">
         <v>575</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="61" t="s">
         <v>575</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="61" t="s">
         <v>575</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="61" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="53" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="55" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="44" t="s">
         <v>576</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="45" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="52" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="63" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="59" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="44" t="s">
         <v>578</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="63" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="44" t="s">
         <v>579</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="45" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="52" t="s">
         <v>574</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="52" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="40" t="s">
+      <c r="B27" s="45"/>
+      <c r="C27" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="40" t="s">
+      <c r="J27" s="64" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="44" t="s">
         <v>581</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="38" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="H29" s="38" t="s">
+      <c r="H29" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="I29" s="38" t="s">
+      <c r="I29" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="65" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
@@ -10127,58 +10410,46 @@
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10212,28 +10483,28 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10242,88 +10513,88 @@
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="56"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="67" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="69" t="s">
         <v>205</v>
       </c>
@@ -10350,8 +10621,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
       <c r="E8" s="70"/>
@@ -10362,10 +10633,10 @@
       <c r="J8" s="70"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
       <c r="E9" s="70"/>
@@ -10376,8 +10647,8 @@
       <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="71"/>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
@@ -10388,136 +10659,136 @@
       <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="63" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="53" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="67" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="J15" s="67" t="s">
+      <c r="J15" s="72" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="17" t="s">
         <v>279</v>
       </c>
@@ -10544,8 +10815,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -10556,8 +10827,8 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -10568,8 +10839,8 @@
       <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -10580,52 +10851,52 @@
       <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="63" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="H21" s="63" t="s">
+      <c r="H21" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="I21" s="63" t="s">
+      <c r="I21" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="43" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="15" t="s">
         <v>428</v>
       </c>
@@ -10652,8 +10923,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -10664,10 +10935,10 @@
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="17" t="s">
         <v>429</v>
       </c>
@@ -10694,8 +10965,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -10706,8 +10977,8 @@
       <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -10718,8 +10989,8 @@
       <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -10730,10 +11001,10 @@
       <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="13" t="s">
         <v>430</v>
       </c>
@@ -10760,8 +11031,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -10773,6 +11044,66 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A17:B20"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -10789,66 +11120,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A17:B20"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10883,28 +11154,28 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10913,28 +11184,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="56"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10944,16 +11215,16 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -10963,52 +11234,52 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="67" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="69" t="s">
         <v>205</v>
       </c>
@@ -11035,8 +11306,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
       <c r="E8" s="70"/>
@@ -11047,10 +11318,10 @@
       <c r="J8" s="70"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
       <c r="E9" s="70"/>
@@ -11061,8 +11332,8 @@
       <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="71"/>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
@@ -11073,94 +11344,94 @@
       <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="63" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="67" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="72" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="69" t="s">
         <v>205</v>
       </c>
@@ -11187,8 +11458,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="70"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -11199,8 +11470,8 @@
       <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="70"/>
       <c r="D17" s="70"/>
       <c r="E17" s="70"/>
@@ -11211,8 +11482,8 @@
       <c r="J17" s="70"/>
     </row>
     <row r="18" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
       <c r="E18" s="71"/>
@@ -11223,52 +11494,52 @@
       <c r="J18" s="71"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="63" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="I19" s="63" t="s">
+      <c r="I19" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="43" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="74" t="s">
         <v>206</v>
       </c>
@@ -11295,8 +11566,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="75"/>
       <c r="D22" s="75"/>
       <c r="E22" s="75"/>
@@ -11307,138 +11578,179 @@
       <c r="J22" s="75"/>
     </row>
     <row r="23" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="44" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="H23" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="J23" s="44" t="s">
+      <c r="J23" s="61" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="38" t="s">
+      <c r="B27" s="45"/>
+      <c r="C27" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A23:B26"/>
+    <mergeCell ref="A15:B18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="A5:B6"/>
@@ -11455,68 +11767,27 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A23:B26"/>
-    <mergeCell ref="A15:B18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
